--- a/TestFiles/sample1/words/word_17.xlsx
+++ b/TestFiles/sample1/words/word_17.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.5009251000000035</v>
+        <v>0.5009250999999963</v>
       </c>
       <c r="B2">
-        <v>0.6192805000000021</v>
+        <v>0.619280499999995</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.707234200000002</v>
+        <v>0.7072341999999949</v>
       </c>
       <c r="B3">
-        <v>0.8277656000000064</v>
+        <v>0.8277655999999993</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.9868383000000023</v>
+        <v>0.9868382999999952</v>
       </c>
       <c r="B4">
-        <v>1.107225200000002</v>
+        <v>1.107225199999995</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.147291700000004</v>
+        <v>1.147291699999997</v>
       </c>
       <c r="B5">
-        <v>1.250914000000009</v>
+        <v>1.250914000000002</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
